--- a/results/mp/logistic/corona/confidence/168/masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,66 +49,54 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>problem</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -118,90 +106,93 @@
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>,</t>
+    <t>.</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -211,7 +202,13 @@
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>please</t>
@@ -220,40 +217,31 @@
     <t>giving</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>sure</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -611,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,16 +689,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,16 +739,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,16 +789,16 @@
         <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8833333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.76</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,16 +939,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,16 +989,16 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8537859007832899</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7027027027027027</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,16 +1039,16 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>0.7931034482758621</v>
@@ -1130,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.576271186440678</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5490196078431373</v>
+        <v>0.5329457364341085</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5234899328859061</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C14">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5079365079365079</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C15">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7625</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5077519379844961</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C16">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.475</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,38 +1418,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4666666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C18">
+        <v>135</v>
+      </c>
+      <c r="D18">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>225</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L18">
         <v>35</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>35</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>40</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L18">
-        <v>20</v>
-      </c>
-      <c r="M18">
-        <v>20</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1472,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3888888888888889</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C19">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,38 +1518,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3636363636363636</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>68</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L20">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>20</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>35</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L20">
-        <v>45</v>
-      </c>
-      <c r="M20">
-        <v>45</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1572,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3636363636363636</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3571428571428572</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2619047619047619</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.6976744186046512</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1722,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,37 +1718,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2597402597402597</v>
+        <v>0.01138279932546374</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
+        <v>2345</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K24">
-        <v>0.6944444444444444</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1780,37 +1768,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2555555555555555</v>
+        <v>0.009354536950420954</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>67</v>
+        <v>2118</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.65</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,37 +1818,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.160857908847185</v>
+        <v>0.009023525620367387</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>313</v>
+        <v>3075</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.6411764705882353</v>
+        <v>0.675</v>
       </c>
       <c r="L26">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1872,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,37 +1868,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07333333333333333</v>
+        <v>0.006031363088057901</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>278</v>
+        <v>4944</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1930,37 +1918,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01305263157894737</v>
+        <v>0.005838847800700661</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="F28">
-        <v>0.89</v>
+        <v>0.53</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2344</v>
+        <v>5108</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K28">
         <v>0.6</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1972,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,309 +1968,213 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01096067053513862</v>
+        <v>0.005568445475638051</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>0.43</v>
+      </c>
+      <c r="F29">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4286</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L29">
+        <v>55</v>
+      </c>
+      <c r="M29">
+        <v>55</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>39</v>
       </c>
-      <c r="E29">
-        <v>0.13</v>
-      </c>
-      <c r="F29">
-        <v>0.87</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3068</v>
-      </c>
-      <c r="J29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="L30">
+        <v>38</v>
+      </c>
+      <c r="M30">
+        <v>38</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31">
+        <v>0.5796610169491525</v>
+      </c>
+      <c r="L31">
+        <v>171</v>
+      </c>
+      <c r="M31">
+        <v>171</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32">
+        <v>0.5774058577405857</v>
+      </c>
+      <c r="L32">
+        <v>138</v>
+      </c>
+      <c r="M32">
+        <v>138</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K29">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L29">
-        <v>138</v>
-      </c>
-      <c r="M29">
-        <v>138</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.007815713698066639</v>
-      </c>
-      <c r="C30">
+      <c r="K33">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L33">
         <v>19</v>
       </c>
-      <c r="D30">
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L34">
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <v>37</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>33</v>
       </c>
-      <c r="E30">
-        <v>0.42</v>
-      </c>
-      <c r="F30">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2412</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L30">
-        <v>19</v>
-      </c>
-      <c r="M30">
-        <v>19</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.006022925976296872</v>
-      </c>
-      <c r="C31">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>49</v>
-      </c>
-      <c r="E31">
-        <v>0.37</v>
-      </c>
-      <c r="F31">
-        <v>0.63</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>5116</v>
-      </c>
-      <c r="J31" s="1" t="s">
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K31">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L31">
-        <v>54</v>
-      </c>
-      <c r="M31">
-        <v>54</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.005219835374422807</v>
-      </c>
-      <c r="C32">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>41</v>
-      </c>
-      <c r="E32">
-        <v>0.37</v>
-      </c>
-      <c r="F32">
-        <v>0.63</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>4955</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="K35">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L35">
+        <v>44</v>
+      </c>
+      <c r="M35">
+        <v>44</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K32">
-        <v>0.5692307692307692</v>
-      </c>
-      <c r="L32">
-        <v>37</v>
-      </c>
-      <c r="M32">
-        <v>37</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.00440324449594438</v>
-      </c>
-      <c r="C33">
-        <v>19</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>0.41</v>
-      </c>
-      <c r="F33">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>4296</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.5661016949152542</v>
-      </c>
-      <c r="L33">
-        <v>167</v>
-      </c>
-      <c r="M33">
-        <v>167</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.5168539325842697</v>
-      </c>
-      <c r="L34">
-        <v>46</v>
-      </c>
-      <c r="M34">
-        <v>46</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.5</v>
-      </c>
-      <c r="L35">
-        <v>35</v>
-      </c>
-      <c r="M35">
-        <v>35</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L36">
         <v>20</v>
@@ -2300,12 +2192,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K37">
         <v>0.4117647058823529</v>
@@ -2329,134 +2221,186 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.3125</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41">
+        <v>0.02085070892410342</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <v>0.96</v>
+      </c>
+      <c r="O41">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K38">
-        <v>0.3972602739726027</v>
-      </c>
-      <c r="L38">
-        <v>29</v>
-      </c>
-      <c r="M38">
-        <v>29</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="L39">
-        <v>23</v>
-      </c>
-      <c r="M39">
-        <v>23</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.02926421404682274</v>
-      </c>
-      <c r="L40">
-        <v>35</v>
-      </c>
-      <c r="M40">
-        <v>39</v>
-      </c>
-      <c r="N40">
-        <v>0.9</v>
-      </c>
-      <c r="O40">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.009009009009009009</v>
-      </c>
-      <c r="L41">
-        <v>24</v>
-      </c>
-      <c r="M41">
+      <c r="K42">
+        <v>0.007876969242310577</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>28</v>
+      </c>
+      <c r="N42">
+        <v>0.75</v>
+      </c>
+      <c r="O42">
+        <v>0.25</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N41">
-        <v>0.73</v>
-      </c>
-      <c r="O41">
-        <v>0.27</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.005961719485409476</v>
-      </c>
-      <c r="L42">
-        <v>19</v>
-      </c>
-      <c r="M42">
-        <v>33</v>
-      </c>
-      <c r="N42">
-        <v>0.58</v>
-      </c>
-      <c r="O42">
+      <c r="K43">
+        <v>0.005258033106134372</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>57</v>
+      </c>
+      <c r="N43">
+        <v>0.47</v>
+      </c>
+      <c r="O43">
+        <v>0.53</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44">
+        <v>0.004430124848973017</v>
+      </c>
+      <c r="L44">
+        <v>22</v>
+      </c>
+      <c r="M44">
+        <v>52</v>
+      </c>
+      <c r="N44">
         <v>0.42</v>
       </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>3168</v>
+      <c r="O44">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4944</v>
       </c>
     </row>
   </sheetData>
